--- a/overview_courses.xlsx
+++ b/overview_courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gules\Desktop\work\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76093AC8-2B9D-4B80-9BB0-FDBC66BE6251}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C2EA07A-250D-4FBA-80DA-54AE368B9796}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{1B3FA390-46B3-4A8E-B65A-F4C7C83AFA37}"/>
   </bookViews>
@@ -703,16 +703,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939FE609-4378-456C-B3D4-573CE5DBAAEA}">
   <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" customWidth="1"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" t="s">
         <v>49</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
         <v>70</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
         <v>88</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
@@ -1012,12 +1012,12 @@
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
         <v>99</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
         <v>101</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
         <v>102</v>
@@ -1061,35 +1061,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="1" t="s">
-        <v>92</v>
+      <c r="N36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N38" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="N39" t="s">
-        <v>31</v>
+      <c r="I39" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
@@ -1101,16 +1093,22 @@
       <c r="C41" t="s">
         <v>104</v>
       </c>
-      <c r="N41" t="s">
-        <v>86</v>
+      <c r="I41" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
